--- a/medicine/Enfance/Pomme_d'Or_de_Bratislava/Pomme_d'Or_de_Bratislava.xlsx
+++ b/medicine/Enfance/Pomme_d'Or_de_Bratislava/Pomme_d'Or_de_Bratislava.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pomme_d%27Or_de_Bratislava</t>
+          <t>Pomme_d'Or_de_Bratislava</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Pomme d'Or de Bratislava (ou Pomme d'Or BIB) (Golden Apple BIB en anglais) est un prix décerné à des illustrateurs lors de la Biennale d'illustration de Bratislava (BIB), biennale internationale se déroulant les années impaires à Bratislava en Slovaquie.
 Durant la BIB, et depuis sa création en 1967, un jury international décerne trois prix aux meilleurs illustrateurs, pour leurs ouvrages jeunesse : Grand Prix BIB, Golden Apple BIB (Pomme d'Or de Bratislava) et Plaque BIB (Plaque d'Or de Bratislava ou Plaquette d'Or, selon les traductions françaises).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pomme_d%27Or_de_Bratislava</t>
+          <t>Pomme_d'Or_de_Bratislava</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1967, après 56 années et 28 éditions jusqu'en 2023, six illustrateurs français ont reçu la Pomme d'Or ; quatre illustrateurs suisses, et trois illustrateurs belges.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pomme_d%27Or_de_Bratislava</t>
+          <t>Pomme_d'Or_de_Bratislava</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Quelques lauréats, de 1967 à 2011
-1967 :
+          <t>Quelques lauréats, de 1967 à 2011</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1967 :
  Leo Lionni pour Pilotin
  Werner Klemke pour Ferdinand der Stier (texte de Munro Leaf)
 1971 :
@@ -581,17 +600,51 @@
 1997 :
  Isabelle Chatellard pour Les Chocottes (texte Olivier Douzou) (Rouergue) et pour Olivia à Paris (texte de Rascal) (L'Ecole des loisirs)
  Susanne Janssen pour Le pari aux trois colères (texte de Italo Calvino) et pour Die Prinzessin mit dem dicken Po, texte de Armando
-1999 :  Albertine Zullo[1] pour Marta et la bicyclette (texte de Germano Zullo) (La Joie de lire)
+1999 :  Albertine Zullo pour Marta et la bicyclette (texte de Germano Zullo) (La Joie de lire)
 2003 :
- Armin Greder[2] pour Die Insel: eine tägliche Geschichte et pour An ordinary day (texte de Libby Gleeson) (Scholastic Press)
- Chiara Carrer[3] pour A qui la faute ? (texte de Marco Carrara)
+ Armin Greder pour Die Insel: eine tägliche Geschichte et pour An ordinary day (texte de Libby Gleeson) (Scholastic Press)
+ Chiara Carrer pour A qui la faute ? (texte de Marco Carrara)
  Michael Dudok de Wit pour Vader en Dochter
 2005 :  Sara pour Révolution (Seuil Jeunesse) et pour À quai (Seuil jeunesse)
 2011 :
  Janik Coat pour Mon hippopotame (Autrement) et pour La Surprise (éditions MeMo)
- Yoo Ju Yeon, avec un poème de Kza Han pour Un jour (traduction française : éditions MeMo)
-Lauréats, depuis 2013
-2013 :
+ Yoo Ju Yeon, avec un poème de Kza Han pour Un jour (traduction française : éditions MeMo)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pomme_d'Or_de_Bratislava</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pomme_d%27Or_de_Bratislava</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lauréats, depuis 2013</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2013 :
 Bird in the cloud de Rong Yu (Chine)
 Can you hear that sound ? de Nobuhiko Haijima (Japon)
 White cat, black cat de Chiki Kikuchi (Japon)
@@ -601,17 +654,17 @@
 Yellow and I de Miroco Machiko (Japon)
 Frankenstein de Elena Odriozola  Espagne
 Bird in cage de Javier Zabala  Espagne
-La nuit quand je dors...  de Ronald Curchod[2]  Suisse
+La nuit quand je dors...  de Ronald Curchod  Suisse
 Braid de Bingchun Huang (Chine)
 2017 :
 Daniela Olejníková (Slovakia)
-Narges Mohammadi[4] (Iran)
+Narges Mohammadi (Iran)
 Ana Desnitskaya (Russia)
 Maki Arai (Japan)
 Ji-min Kim (South Korea).
 2019 :
 Janis Blanks (Lettonie)
-Soonjung Myung[5] (Corée du Sud)
+Soonjung Myung (Corée du Sud)
 Anton Lomaev (Russie)
 Wen Dee Tan (Malaisie)
 Chengliang Zhu (Chine)
@@ -624,7 +677,7 @@
 2023 :
 Anete Bajāre-Babčuka (Lettonie)
 Xunru Chen (Chine)
-Maeva Rubli  Suisse pour Face à face[6], texte d'Anisa Alrefaei Roomieh
+Maeva Rubli  Suisse pour Face à face, texte d'Anisa Alrefaei Roomieh
 Maya Shleifer (Israël)
 Daniel Torrent  Espagne</t>
         </is>
